--- a/Synthèse-Experiences/76-77-78-79.xlsx
+++ b/Synthèse-Experiences/76-77-78-79.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacData/Users/clemencebriosnefrejaville/Desktop/GitHubAustralie/Synthèse-Experiences/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
   <si>
     <t>Experience</t>
   </si>
@@ -48,6 +43,45 @@
   </si>
   <si>
     <t>76c</t>
+  </si>
+  <si>
+    <t>76d</t>
+  </si>
+  <si>
+    <t>76e</t>
+  </si>
+  <si>
+    <t>76f</t>
+  </si>
+  <si>
+    <t>76g</t>
+  </si>
+  <si>
+    <t>76h</t>
+  </si>
+  <si>
+    <t>76i</t>
+  </si>
+  <si>
+    <t>77a</t>
+  </si>
+  <si>
+    <t>79a</t>
+  </si>
+  <si>
+    <t>79b</t>
+  </si>
+  <si>
+    <t>79c</t>
+  </si>
+  <si>
+    <t>79d</t>
+  </si>
+  <si>
+    <t>79e</t>
+  </si>
+  <si>
+    <t>79f</t>
   </si>
 </sst>
 </file>
@@ -142,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Bureau">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,7 +211,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,7 +388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -362,15 +396,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -392,7 +429,10 @@
         <v>37.549999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -400,7 +440,7 @@
         <v>48.35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -411,7 +451,10 @@
         <v>45.96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -419,7 +462,7 @@
         <v>57.61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -428,6 +471,225 @@
       </c>
       <c r="C6">
         <v>52.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>56.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>54.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>67.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>55.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>57.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>57.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>68.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>56.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>47.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Synthèse-Experiences/76-77-78-79.xlsx
+++ b/Synthèse-Experiences/76-77-78-79.xlsx
@@ -388,7 +388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
